--- a/project/BC_Excel_Sheets/Offer.xlsx
+++ b/project/BC_Excel_Sheets/Offer.xlsx
@@ -521,7 +521,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
@@ -744,6 +751,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"CorpoS"&amp;10&amp;K000000Internal&amp;1#</oddHeader>
+  </headerFooter>
   <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/project/BC_Excel_Sheets/Offer.xlsx
+++ b/project/BC_Excel_Sheets/Offer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Costs for whole Team</t>
   </si>
   <si>
-    <t>JetBrain Webstorm license</t>
-  </si>
-  <si>
     <t>Energy &amp; Internet</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Offer Sum</t>
+  </si>
+  <si>
+    <t>JetBrains Webstorm license</t>
   </si>
 </sst>
 </file>
@@ -515,23 +515,23 @@
   <dimension ref="A2:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,13 +539,13 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -568,19 +568,19 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
       <c r="N4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -592,7 +592,7 @@
         <v>16500</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
         <v>249</v>
@@ -605,19 +605,19 @@
         <v>1494</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2">
         <v>83250</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="2">
         <v>85644</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -629,7 +629,7 @@
         <v>15750</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>150</v>
@@ -648,14 +648,14 @@
         <v>2394</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
         <f>N5*20%</f>
         <v>17128.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -667,7 +667,7 @@
         <v>13500</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -680,21 +680,21 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="4">
         <f>K5+K6</f>
         <v>85644</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="4">
         <f>N5+N6</f>
         <v>102772.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -706,7 +706,7 @@
         <v>13500</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4">
         <f>H5+H6+H7</f>
@@ -714,7 +714,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -739,7 +739,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
